--- a/biology/Zoologie/Hersilia_sumatrana/Hersilia_sumatrana.xlsx
+++ b/biology/Zoologie/Hersilia_sumatrana/Hersilia_sumatrana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hersilia sumatrana est une espèce d'araignées aranéomorphes de la famille des Hersiliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hersilia sumatrana est une espèce d'araignées aranéomorphes de la famille des Hersiliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Sumatra et au Kalimantan, en Malaisie, en Inde et en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Sumatra et au Kalimantan, en Malaisie, en Inde et en Chine.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle décrite par Baehr et Baehr en 1993 mesure 10,6 mm[2].
-Cette araignée a des filières très allongées et bénéficie d'un remarquable camouflage cryptique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle décrite par Baehr et Baehr en 1993 mesure 10,6 mm.
+Cette araignée a des filières très allongées et bénéficie d'un remarquable camouflage cryptique.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chalinura sumatrana par Thorell en 1890. Elle est placée dans le genre Hersilia par Thorell en 1890[4].
-Hersilia stevensi[5] a été placée en synonymie par Baehr et Baehr en 1993[2].
-Hersilia yunnanensis[6] a été placée en synonymie par Lin et Li en 2022[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chalinura sumatrana par Thorell en 1890. Elle est placée dans le genre Hersilia par Thorell en 1890.
+Hersilia stevensi a été placée en synonymie par Baehr et Baehr en 1993.
+Hersilia yunnanensis a été placée en synonymie par Lin et Li en 2022.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Sumatra.
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Thorell, 1890 : « Studi sui ragni Malesi e Papuani. IV, 1. » Annali del Museo Civico di Storia Naturale di Genova, vol. 28, p. 1-419 (texte intégral).</t>
         </is>
